--- a/com.sevenmartsupermarket/src/main/resources/ExcelFiles/ManageLocationData.xlsx
+++ b/com.sevenmartsupermarket/src/main/resources/ExcelFiles/ManageLocationData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammua\git\repository4\com.sevenmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580924F9-6008-4AAA-BCEC-71D2567C53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BAA58-5A1B-4716-8C1D-390DFC1C83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
+    <sheet name="NewLoc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -46,13 +47,22 @@
   </si>
   <si>
     <t>XYZ</t>
+  </si>
+  <si>
+    <t>Aisw</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>jishnu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +76,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -417,4 +434,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC0EC19-E568-4165-9661-132A285E0D5B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>